--- a/Dissertation/results-for-whats_wrong_-2021-05-13-0649.xlsx
+++ b/Dissertation/results-for-whats_wrong_-2021-05-13-0649.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan-Syme\Documents\Final_Year\Final_Year_Project\Individual_Project\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8B6C3-042A-48E3-9672-134183164BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96391E84-B59D-415F-9AD7-EA4DD061FD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>1. I have read and understood the Participant Information Sheet and information above and consent to take part in this questionnaire</t>
   </si>
@@ -113,6 +123,15 @@
   </si>
   <si>
     <t>10. I needed to learn a lot of things before I could get going with this system.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SUS Score</t>
   </si>
 </sst>
 </file>
@@ -488,17 +507,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -928,6 +959,15 @@
       <c r="K13" t="s">
         <v>30</v>
       </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -960,6 +1000,18 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <f>B14+D14+F14+H14+J14-5</f>
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <f>25-C14-E14-G14-I14-K14</f>
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <f>SUM(L14:M14)*2.5</f>
+        <v>97.5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -992,6 +1044,18 @@
       <c r="K15">
         <v>3</v>
       </c>
+      <c r="L15">
+        <f>B15+D15+F15+H15+J15-5</f>
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <f>25-C15-E15-G15-I15-K15</f>
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <f>SUM(L15:M15)*2.5</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -1024,8 +1088,20 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f>B16+D16+F16+H16+J16-5</f>
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <f>25-C16-E16-G16-I16-K16</f>
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N21" si="0">SUM(L16:M16)*2.5</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
@@ -1056,8 +1132,20 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f>B17+D17+F17+H17+J17-5</f>
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <f>25-C17-E17-G17-I17-K17</f>
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4</v>
       </c>
@@ -1088,8 +1176,20 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>B18+D18+F18+H18+J18-5</f>
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <f>25-C18-E18-G18-I18-K18</f>
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1120,8 +1220,20 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>B19+D19+F19+H19+J19-5</f>
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <f>25-C19-E19-G19-I19-K19</f>
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1152,8 +1264,20 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f>B20+D20+F20+H20+J20-5</f>
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f>25-C20-E20-G20-I20-K20</f>
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -1183,6 +1307,24 @@
       </c>
       <c r="K21">
         <v>2</v>
+      </c>
+      <c r="L21">
+        <f>B21+D21+F21+H21+J21-5</f>
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <f>25-C21-E21-G21-I21-K21</f>
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f>AVERAGE(N14:N21)</f>
+        <v>81.875</v>
       </c>
     </row>
   </sheetData>
